--- a/BloodstreamAPI/testData/session.xlsx
+++ b/BloodstreamAPI/testData/session.xlsx
@@ -3,15 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B309B38-7082-4866-A517-BBDF1F3CE019}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{6583602A-4089-41BE-B0CB-81B1E305C536}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14685" windowHeight="5745" tabRatio="715" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13740" windowHeight="9585" tabRatio="715" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="logoff" sheetId="2" r:id="rId1"/>
     <sheet name="heartbeat" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:N29"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
   <si>
     <t>EndPoint</t>
   </si>
@@ -35,7 +36,7 @@
     <t>/session/loginToken</t>
   </si>
   <si>
-    <t>Assert404</t>
+    <t>/session/heartbeat</t>
   </si>
 </sst>
 </file>
@@ -402,7 +403,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,9 +451,7 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>4</v>
-      </c>
+      <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -463,18 +462,14 @@
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
@@ -529,7 +524,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="A5" sqref="A5:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,7 +553,7 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -569,9 +564,7 @@
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>4</v>
-      </c>
+      <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -582,18 +575,14 @@
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
@@ -626,7 +615,7 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -637,5 +626,6 @@
     <mergeCell ref="A9:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/BloodstreamAPI/testData/session.xlsx
+++ b/BloodstreamAPI/testData/session.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{6583602A-4089-41BE-B0CB-81B1E305C536}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{994026BA-20B9-4A91-B728-7A1768EA61E7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13740" windowHeight="9585" tabRatio="715" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13740" windowHeight="9585" tabRatio="715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="logoff" sheetId="2" r:id="rId1"/>
     <sheet name="heartbeat" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N29"/>
+  <oleSize ref="A1:J29"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -402,8 +402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC16E1A-EBE8-4FD7-9522-847FD03243A9}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,22 +426,20 @@
       <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="5" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -488,22 +486,20 @@
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
+      <c r="A11" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="5" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
@@ -523,8 +519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7686D50-67F9-4417-89E9-05E9EDAF8075}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,22 +535,18 @@
       <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
@@ -601,22 +593,18 @@
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
+      <c r="A11" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5" t="s">
-        <v>4</v>
-      </c>
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>

--- a/BloodstreamAPI/testData/session.xlsx
+++ b/BloodstreamAPI/testData/session.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{994026BA-20B9-4A91-B728-7A1768EA61E7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6FD82B-538A-4AD5-8A14-6020A743B3A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13740" windowHeight="9585" tabRatio="715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="logoff" sheetId="2" r:id="rId1"/>
     <sheet name="heartbeat" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J29"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -400,23 +399,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC16E1A-EBE8-4FD7-9522-847FD03243A9}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A11"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="26.81640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.26953125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -425,7 +424,7 @@
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -433,7 +432,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -441,74 +440,52 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -517,15 +494,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7686D50-67F9-4417-89E9-05E9EDAF8075}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -534,84 +511,62 @@
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/BloodstreamAPI/testData/session.xlsx
+++ b/BloodstreamAPI/testData/session.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6FD82B-538A-4AD5-8A14-6020A743B3A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{994026BA-20B9-4A91-B728-7A1768EA61E7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13740" windowHeight="9585" tabRatio="715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="logoff" sheetId="2" r:id="rId1"/>
     <sheet name="heartbeat" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:J29"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -399,23 +400,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC16E1A-EBE8-4FD7-9522-847FD03243A9}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="A10" sqref="A10:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.26953125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="26.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -424,7 +425,7 @@
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -432,7 +433,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -440,52 +441,74 @@
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>3</v>
-      </c>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="5"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A9:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -494,15 +517,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7686D50-67F9-4417-89E9-05E9EDAF8075}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -511,62 +534,84 @@
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
     </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>4</v>
-      </c>
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A9:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/BloodstreamAPI/testData/session.xlsx
+++ b/BloodstreamAPI/testData/session.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22624"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{994026BA-20B9-4A91-B728-7A1768EA61E7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC77628E-8BC0-4609-BB9D-2F06E677EC2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13740" windowHeight="9585" tabRatio="715" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="715" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="logoff" sheetId="2" r:id="rId1"/>
     <sheet name="heartbeat" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J29"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="6">
   <si>
     <t>EndPoint</t>
   </si>
@@ -37,6 +36,9 @@
   </si>
   <si>
     <t>/session/heartbeat</t>
+  </si>
+  <si>
+    <t>Header</t>
   </si>
 </sst>
 </file>
@@ -402,8 +404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFC16E1A-EBE8-4FD7-9522-847FD03243A9}">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,27 +521,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7686D50-67F9-4417-89E9-05E9EDAF8075}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="37" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -547,71 +552,52 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="B6" s="4"/>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
+      <c r="A7" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="6"/>
     </row>
     <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="2"/>
+      <c r="A8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-    </row>
+      <c r="A9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="A11"/>
+      <c r="B11"/>
+    </row>
+    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12"/>
+      <c r="B12"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="A9:E9"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A7:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
